--- a/DataBase/design1.0.4.xlsx
+++ b/DataBase/design1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Class\rs\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7AAA3BF-87C7-4CF3-8797-C4D3036F398E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E86C00-AAB1-457B-B73F-C019C9C0A4C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" tabRatio="777" activeTab="8" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
   </bookViews>
@@ -3740,7 +3740,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
